--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +88,13 @@
     <t>Erbb2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.21548106112603</v>
+        <v>0.6079640000000001</v>
       </c>
       <c r="H2">
-        <v>0.21548106112603</v>
+        <v>1.823892</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6924052427747278</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7715093163997315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.47254733739241</v>
+        <v>2.517755</v>
       </c>
       <c r="N2">
-        <v>2.47254733739241</v>
+        <v>7.553265</v>
       </c>
       <c r="O2">
-        <v>0.2565755642832794</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P2">
-        <v>0.2565755642832794</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q2">
-        <v>0.5327871239456566</v>
+        <v>1.53070440082</v>
       </c>
       <c r="R2">
-        <v>0.5327871239456566</v>
+        <v>13.77633960738</v>
       </c>
       <c r="S2">
-        <v>0.2565755642832794</v>
+        <v>0.173404358787802</v>
       </c>
       <c r="T2">
-        <v>0.2565755642832794</v>
+        <v>0.2211376267261898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.21548106112603</v>
+        <v>0.6079640000000001</v>
       </c>
       <c r="H3">
-        <v>0.21548106112603</v>
+        <v>1.823892</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6924052427747278</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7715093163997315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38875992503424</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
-        <v>3.38875992503424</v>
+        <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3516506951503644</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P3">
-        <v>0.3516506951503644</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q3">
-        <v>0.7302135845477439</v>
+        <v>2.242003433936</v>
       </c>
       <c r="R3">
-        <v>0.7302135845477439</v>
+        <v>20.178030905424</v>
       </c>
       <c r="S3">
-        <v>0.3516506951503644</v>
+        <v>0.2539831777144274</v>
       </c>
       <c r="T3">
-        <v>0.3516506951503644</v>
+        <v>0.3238974933546797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,495 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.6079640000000001</v>
+      </c>
+      <c r="H4">
+        <v>1.823892</v>
+      </c>
+      <c r="I4">
+        <v>0.6924052427747278</v>
+      </c>
+      <c r="J4">
+        <v>0.7715093163997315</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N4">
+        <v>0.000111</v>
+      </c>
+      <c r="O4">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P4">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q4">
+        <v>2.2494668E-05</v>
+      </c>
+      <c r="R4">
+        <v>0.000202452012</v>
+      </c>
+      <c r="S4">
+        <v>2.548286578776995E-06</v>
+      </c>
+      <c r="T4">
+        <v>3.249757100619013E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.6079640000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.823892</v>
+      </c>
+      <c r="I5">
+        <v>0.6924052427747278</v>
+      </c>
+      <c r="J5">
+        <v>0.7715093163997315</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.039625</v>
+      </c>
+      <c r="N5">
+        <v>0.118875</v>
+      </c>
+      <c r="O5">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P5">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q5">
+        <v>0.0240905735</v>
+      </c>
+      <c r="R5">
+        <v>0.2168151615</v>
+      </c>
+      <c r="S5">
+        <v>0.002729077180649687</v>
+      </c>
+      <c r="T5">
+        <v>0.003480314192216984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6079640000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.823892</v>
+      </c>
+      <c r="I6">
+        <v>0.6924052427747278</v>
+      </c>
+      <c r="J6">
+        <v>0.7715093163997315</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.8082785</v>
+      </c>
+      <c r="N6">
+        <v>7.616557</v>
+      </c>
+      <c r="O6">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P6">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q6">
+        <v>2.315296229974</v>
+      </c>
+      <c r="R6">
+        <v>13.891777379844</v>
+      </c>
+      <c r="S6">
+        <v>0.2622860808052699</v>
+      </c>
+      <c r="T6">
+        <v>0.2229906323695445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.21548106112603</v>
-      </c>
-      <c r="H4">
-        <v>0.21548106112603</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.77541455205809</v>
-      </c>
-      <c r="N4">
-        <v>3.77541455205809</v>
-      </c>
-      <c r="O4">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="P4">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="Q4">
-        <v>0.8135303338681324</v>
-      </c>
-      <c r="R4">
-        <v>0.8135303338681324</v>
-      </c>
-      <c r="S4">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="T4">
-        <v>0.3917737405663562</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2700825</v>
+      </c>
+      <c r="H7">
+        <v>0.540165</v>
+      </c>
+      <c r="I7">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J7">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.517755</v>
+      </c>
+      <c r="N7">
+        <v>7.553265</v>
+      </c>
+      <c r="O7">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P7">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q7">
+        <v>0.6800015647875</v>
+      </c>
+      <c r="R7">
+        <v>4.080009388725</v>
+      </c>
+      <c r="S7">
+        <v>0.07703331567709029</v>
+      </c>
+      <c r="T7">
+        <v>0.06549225839060224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2700825</v>
+      </c>
+      <c r="H8">
+        <v>0.540165</v>
+      </c>
+      <c r="I8">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J8">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.687724</v>
+      </c>
+      <c r="N8">
+        <v>11.063172</v>
+      </c>
+      <c r="O8">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P8">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q8">
+        <v>0.99598971723</v>
+      </c>
+      <c r="R8">
+        <v>5.97593830338</v>
+      </c>
+      <c r="S8">
+        <v>0.1128297260940727</v>
+      </c>
+      <c r="T8">
+        <v>0.09592568501749585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2700825</v>
+      </c>
+      <c r="H9">
+        <v>0.540165</v>
+      </c>
+      <c r="I9">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J9">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N9">
+        <v>0.000111</v>
+      </c>
+      <c r="O9">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P9">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q9">
+        <v>9.993052499999999E-06</v>
+      </c>
+      <c r="R9">
+        <v>5.9958315E-05</v>
+      </c>
+      <c r="S9">
+        <v>1.132053229981607E-06</v>
+      </c>
+      <c r="T9">
+        <v>9.624501035455327E-07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2700825</v>
+      </c>
+      <c r="H10">
+        <v>0.540165</v>
+      </c>
+      <c r="I10">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J10">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.039625</v>
+      </c>
+      <c r="N10">
+        <v>0.118875</v>
+      </c>
+      <c r="O10">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P10">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q10">
+        <v>0.0107020190625</v>
+      </c>
+      <c r="R10">
+        <v>0.064212114375</v>
+      </c>
+      <c r="S10">
+        <v>0.001212367817243816</v>
+      </c>
+      <c r="T10">
+        <v>0.001030732036567344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2700825</v>
+      </c>
+      <c r="H11">
+        <v>0.540165</v>
+      </c>
+      <c r="I11">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J11">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.8082785</v>
+      </c>
+      <c r="N11">
+        <v>7.616557</v>
+      </c>
+      <c r="O11">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P11">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q11">
+        <v>1.02854937797625</v>
+      </c>
+      <c r="R11">
+        <v>4.114197511905</v>
+      </c>
+      <c r="S11">
+        <v>0.1165182155836354</v>
+      </c>
+      <c r="T11">
+        <v>0.06604104570549957</v>
       </c>
     </row>
   </sheetData>
